--- a/Zadatak 2/DTT_Low_level.xlsx
+++ b/Zadatak 2/DTT_Low_level.xlsx
@@ -8,21 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DT User\Desktop\fask\FM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE206DE2-2991-4B1E-8959-BB7E18506922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9862C2DC-0199-4908-90D4-87C64607D156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test case 1" sheetId="2" r:id="rId1"/>
-    <sheet name="Test case 2" sheetId="7" r:id="rId2"/>
+    <sheet name="Test case 2" sheetId="9" r:id="rId2"/>
     <sheet name="Test case 3" sheetId="8" r:id="rId3"/>
+    <sheet name="Test case 4" sheetId="10" r:id="rId4"/>
+    <sheet name="Test case 5" sheetId="11" r:id="rId5"/>
+    <sheet name="Test case 6" sheetId="12" r:id="rId6"/>
+    <sheet name="Test case 7" sheetId="13" r:id="rId7"/>
+    <sheet name="Test case 8" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="82">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -193,6 +198,81 @@
   </si>
   <si>
     <t>"Lifetime" filter cannot be selected, no products that match those 3 filters together</t>
+  </si>
+  <si>
+    <t>Decision Table Case 1 - Apply New + Commercial + Limited</t>
+  </si>
+  <si>
+    <t>Filters: Condition=New, Grade=Commercial, Warranty=Limited</t>
+  </si>
+  <si>
+    <t>Select "Limited" warranty filter</t>
+  </si>
+  <si>
+    <t>"Limited" filter is applied</t>
+  </si>
+  <si>
+    <t>Only "New", "Commercial", "Limited" products are shown</t>
+  </si>
+  <si>
+    <t>Decision Table Case 3 - Apply New  + Residential + Limited</t>
+  </si>
+  <si>
+    <t>Filters: Condition=New, Grade=Residential, Warranty=Limited</t>
+  </si>
+  <si>
+    <t>Only "New", "Residential", "Limited" products are shown</t>
+  </si>
+  <si>
+    <t>6.1.2026.</t>
+  </si>
+  <si>
+    <t>DTT-TC04</t>
+  </si>
+  <si>
+    <t>DTT-TC08</t>
+  </si>
+  <si>
+    <t>Decision Table Case 3 - Apply Used  + Commercial + Lifetime</t>
+  </si>
+  <si>
+    <t>Filters: Condition=Used, Grade=Commercial, Warranty=Lifetime</t>
+  </si>
+  <si>
+    <t>Select "Used" condition filter</t>
+  </si>
+  <si>
+    <t>"Used" filter is applied, results update</t>
+  </si>
+  <si>
+    <t>"Commerciall" filter is applied, results narrow down</t>
+  </si>
+  <si>
+    <t>"Commercial" filter cannot be selected, no products that match those 3 filters together</t>
+  </si>
+  <si>
+    <t>DTT-TC05</t>
+  </si>
+  <si>
+    <t>DTT-TC06</t>
+  </si>
+  <si>
+    <t>Decision Table Case 3 - Apply Used  + Commercial + Limited</t>
+  </si>
+  <si>
+    <t>Filters: Condition=Used, Grade=Commercial, Warranty=Limited</t>
+  </si>
+  <si>
+    <t>Decision Table Case 3 - Apply Used  + Residential + Lifetime</t>
+  </si>
+  <si>
+    <t>DTT-TC07</t>
+  </si>
+  <si>
+    <t>Filters: Condition=Used, Grade=Residential, Warranty=Lifetime</t>
+  </si>
+  <si>
+    <t>Only "Used", "Residential", "Lifetime" products are shown</t>
   </si>
 </sst>
 </file>
@@ -266,7 +346,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -378,11 +458,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -396,38 +529,84 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -681,180 +860,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="19"/>
       <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="10"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="10"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="19"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="9" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="10"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="10"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="11"/>
       <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="10"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="10"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="11"/>
       <c r="F11" s="3">
         <v>2</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="10"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="10"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11"/>
       <c r="F12" s="3">
         <v>3</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="10"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="10"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11"/>
       <c r="F13" s="3">
         <v>4</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="10"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
@@ -865,167 +1044,132 @@
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="14" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="14" t="s">
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="17" t="s">
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="18"/>
+      <c r="K17" s="24"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="9" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="9" t="s">
+      <c r="H18" s="12"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="10"/>
+      <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>2</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="9" t="s">
+      <c r="E19" s="12"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="9" t="s">
+      <c r="H19" s="12"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K19" s="10"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>3</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9" t="s">
+      <c r="C20" s="11"/>
+      <c r="D20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="9" t="s">
+      <c r="E20" s="12"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="9" t="s">
+      <c r="H20" s="12"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="10"/>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>4</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="20" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="20" t="s">
+      <c r="E21" s="15"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="20" t="s">
+      <c r="H21" s="15"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="21"/>
+      <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="G9:K9"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="G18:I18"/>
@@ -1040,9 +1184,44 @@
     <mergeCell ref="G10:K10"/>
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B20:C20"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:G7">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="1">
       <formula>LEN(TRIM(F7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1051,14 +1230,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A3CE80-3FD6-48D4-8979-54AB2F497EA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D3C43E-83D4-40C8-8E0A-0DEB8CF5B48C}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1070,180 +1249,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="19"/>
       <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="10"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="10"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="19"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="9" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="10"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="10"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="11"/>
       <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="10"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="10"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="11"/>
       <c r="F11" s="3">
         <v>2</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="10"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11"/>
       <c r="F12" s="3">
         <v>3</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="10"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="10"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11"/>
       <c r="F13" s="3">
         <v>4</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="10"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
@@ -1254,129 +1433,129 @@
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="14" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="14" t="s">
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="17" t="s">
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="18"/>
+      <c r="K17" s="24"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="9" t="s">
+      <c r="B18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="10"/>
+      <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>2</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="9" t="s">
+      <c r="B19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K19" s="10"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>3</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="9" t="s">
+      <c r="B20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="10"/>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>4</v>
       </c>
-      <c r="B21" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="20" t="s">
+      <c r="B21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K21" s="21"/>
+      <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -1431,7 +1610,7 @@
     <mergeCell ref="J3:K3"/>
   </mergeCells>
   <conditionalFormatting sqref="F7:G7">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="1">
       <formula>LEN(TRIM(F7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1446,8 +1625,8 @@
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1459,180 +1638,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
+      <c r="B2" s="19"/>
       <c r="C2" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="10"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="10"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="12"/>
+      <c r="B5" s="19"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="12"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="9" t="s">
+      <c r="I7" s="19"/>
+      <c r="J7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="10"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>1</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="10"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="11"/>
       <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="10"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="10"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="11"/>
       <c r="F11" s="3">
         <v>2</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="10"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>3</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="10"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11"/>
       <c r="F12" s="3">
         <v>3</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="10"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>4</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="10"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11"/>
       <c r="F13" s="3">
         <v>4</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="10"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
@@ -1643,119 +1822,1639 @@
       <c r="A17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="14" t="s">
+      <c r="C17" s="19"/>
+      <c r="D17" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="14" t="s">
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="17" t="s">
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="18"/>
+      <c r="K17" s="24"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="9" t="s">
+      <c r="E18" s="12"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="9" t="s">
+      <c r="H18" s="12"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="10"/>
+      <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>2</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="9" t="s">
+      <c r="E19" s="12"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="9" t="s">
+      <c r="H19" s="12"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K19" s="10"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>3</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="20" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="20" t="s">
+      <c r="E20" s="15"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="22"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="20" t="s">
+      <c r="H20" s="15"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="21"/>
+      <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
       <c r="G21" s="26"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
       <c r="J21" s="26"/>
-      <c r="K21" s="27"/>
+      <c r="K21" s="17"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="24"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="49">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F7:G7">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="1">
+      <formula>LEN(TRIM(F7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBE19D4-2A31-4264-A942-9475583E790B}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="19"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="11"/>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="11"/>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11"/>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11"/>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>2</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>3</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <v>4</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="49">
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F7:G7">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="1">
+      <formula>LEN(TRIM(F7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FEFF691-D15E-442C-8171-51876AC5576B}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="19"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="11"/>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="11"/>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11"/>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11"/>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>2</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="27">
+        <v>3</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="30"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="30"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="29"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="33"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F7:G7">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="1">
+      <formula>LEN(TRIM(F7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37759C47-094E-4E14-BF3E-9CB61D319ED0}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="19"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="11"/>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="11"/>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11"/>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11"/>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>2</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="27">
+        <v>3</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="30"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="30"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="29"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="33"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F7:G7">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(F7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86E9C961-75A2-4331-B99A-100CEE4C6F42}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="19"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="11"/>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="11"/>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11"/>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11"/>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>2</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>3</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <v>4</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="49">
@@ -1816,4 +3515,393 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A3CE80-3FD6-48D4-8979-54AB2F497EA1}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="11" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="19"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="19"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="19"/>
+      <c r="J7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="F9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="11"/>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="11"/>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11"/>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="11"/>
+      <c r="F13" s="3">
+        <v>4</v>
+      </c>
+      <c r="G13" s="21"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>2</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>3</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="12"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <v>4</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="49">
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:K21"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F7:G7">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="1">
+      <formula>LEN(TRIM(F7))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>